--- a/Static Pressure Cal. SHAHEEM ANJUM.xlsx
+++ b/Static Pressure Cal. SHAHEEM ANJUM.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aamir Suhail\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aamir Suhail\Desktop\SHAHEEM ANJUM\SHAHEEM ANJUM 1\ARCH SAUD RESIDENTIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE50CE2-7C3C-49DD-99A5-8E8C44E39418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612EA384-117F-4632-8C7C-67713DEDBEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSF" sheetId="1" r:id="rId1"/>
-    <sheet name="ESP" sheetId="2" r:id="rId2"/>
+    <sheet name="ESP-FLAT_1-3" sheetId="2" r:id="rId2"/>
+    <sheet name="ESP-FLAT_2-4" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">CSF!$A$1:$R$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ESP!$B$1:$K$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'ESP-FLAT_1-3'!$B$1:$K$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'ESP-FLAT_2-4'!$B$1:$K$35</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="131">
   <si>
     <t>Project</t>
   </si>
@@ -342,31 +344,16 @@
     <t>3.</t>
   </si>
   <si>
-    <t>Duct Fittings, 64" x 32"</t>
-  </si>
-  <si>
     <t>4.</t>
   </si>
   <si>
-    <t>Duct Fittings, 40" x 24"</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Duct Fittings, 22" x 18"</t>
-  </si>
-  <si>
     <t>6.</t>
   </si>
   <si>
-    <t>Duct Fittings, 12" x 8"</t>
-  </si>
-  <si>
     <t>7.</t>
-  </si>
-  <si>
-    <t>Duct Fittings, 6" x 6"</t>
   </si>
   <si>
     <t>8.</t>
@@ -496,9 +483,6 @@
     <t>Single Duct VAV units with integral sound attenuator without reheat coil.</t>
   </si>
   <si>
-    <t>:  (Supply Fan)</t>
-  </si>
-  <si>
     <t xml:space="preserve">: </t>
   </si>
   <si>
@@ -518,6 +502,42 @@
   </si>
   <si>
     <t>FCU-1</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 31" x 26"</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 15" x 14"</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 11" x 11"</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 11" x 4"</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 6" x 4"</t>
+  </si>
+  <si>
+    <t>:  (Supply Fan) FALT:1-3</t>
+  </si>
+  <si>
+    <t>:  (Supply Fan) FALT:2-4</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 16" x 14"</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 16" x 10"</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 16" x 6"</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 8" x 4"</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 30" x 26"</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1684,6 +1704,15 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2114,10 +2143,10 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2137,8 +2166,8 @@
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="115"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="118"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2146,10 +2175,10 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2178,7 +2207,7 @@
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2191,7 +2220,7 @@
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -2258,7 +2287,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="24"/>
@@ -2278,7 +2307,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="29"/>
@@ -2711,7 +2740,7 @@
     <row r="25" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="41"/>
       <c r="B25" s="42" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="24"/>
@@ -2758,7 +2787,7 @@
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -2826,7 +2855,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="44" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -2858,7 +2887,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="46">
-        <f>ESP!K3</f>
+        <f>'ESP-FLAT_1-3'!K3</f>
         <v>1000</v>
       </c>
       <c r="H31" s="24" t="s">
@@ -3415,7 +3444,7 @@
       <selection activeCell="O7" sqref="O7"/>
       <selection pane="topRight" activeCell="O7" sqref="O7"/>
       <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3438,18 +3467,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="122" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="124"/>
+      <c r="B1" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="127"/>
       <c r="M1" s="59"/>
       <c r="N1" s="60" t="s">
         <v>61</v>
@@ -3468,7 +3497,7 @@
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="65"/>
@@ -3476,11 +3505,11 @@
       <c r="H2" s="65"/>
       <c r="I2" s="65"/>
       <c r="J2" s="66" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K2" s="67">
-        <f>CSF!J7</f>
-        <v>18140</v>
+        <f>8074</f>
+        <v>8074</v>
       </c>
       <c r="M2" s="68">
         <f>CSF!I27</f>
@@ -3501,7 +3530,7 @@
       </c>
       <c r="C3" s="70"/>
       <c r="D3" s="70" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3" s="70"/>
@@ -3530,7 +3559,7 @@
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="74" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
@@ -3550,50 +3579,50 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="E5" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="127" t="s">
+      <c r="I5" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="127" t="s">
+      <c r="J5" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="129" t="s">
+      <c r="K5" s="132" t="s">
         <v>77</v>
       </c>
       <c r="N5" s="76"/>
       <c r="O5" s="77"/>
     </row>
     <row r="6" spans="1:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="126"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="130"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="133"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="78" t="s">
@@ -3606,7 +3635,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="81">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="F7" s="81" t="s">
         <v>81</v>
@@ -3620,14 +3649,14 @@
       </c>
       <c r="I7" s="83">
         <f>(E7*H7)/100</f>
-        <v>0.2</v>
+        <v>0.10600000000000001</v>
       </c>
       <c r="J7" s="84" t="s">
         <v>81</v>
       </c>
       <c r="K7" s="85">
         <f>I7</f>
-        <v>0.2</v>
+        <v>0.10600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3668,83 +3697,79 @@
         <v>84</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E9" s="89" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="96">
-        <v>21.33</v>
-      </c>
-      <c r="G9" s="89">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G9" s="89"/>
       <c r="H9" s="90">
         <f t="shared" ref="H9:H15" si="0">$H$7</f>
         <v>0.1</v>
       </c>
       <c r="I9" s="91">
         <f t="shared" ref="I9:I15" si="1">(F9*G9*H9)/100</f>
-        <v>4.2660000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="97" t="s">
         <v>81</v>
       </c>
       <c r="K9" s="93">
         <f t="shared" ref="K9:K15" si="2">I9</f>
-        <v>4.2660000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="O9" s="63"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="95"/>
       <c r="C10" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="E10" s="89" t="s">
         <v>81</v>
       </c>
       <c r="F10" s="96">
-        <v>16</v>
-      </c>
-      <c r="G10" s="89">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G10" s="89"/>
       <c r="H10" s="90">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I10" s="91">
         <f t="shared" si="1"/>
-        <v>4.8000000000000008E-2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="97" t="s">
         <v>81</v>
       </c>
       <c r="K10" s="93">
         <f t="shared" si="2"/>
-        <v>4.8000000000000008E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="95"/>
       <c r="C11" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="E11" s="89" t="s">
         <v>81</v>
       </c>
       <c r="F11" s="96">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G11" s="89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="90">
         <f t="shared" si="0"/>
@@ -3752,60 +3777,62 @@
       </c>
       <c r="I11" s="91">
         <f t="shared" si="1"/>
-        <v>1.2000000000000002E-2</v>
+        <v>1.4000000000000002E-2</v>
       </c>
       <c r="J11" s="97" t="s">
         <v>81</v>
       </c>
       <c r="K11" s="93">
         <f t="shared" si="2"/>
-        <v>1.2000000000000002E-2</v>
+        <v>1.4000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="95"/>
       <c r="C12" s="87" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E12" s="89" t="s">
         <v>81</v>
       </c>
       <c r="F12" s="96">
-        <v>5.33</v>
-      </c>
-      <c r="G12" s="89"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="89">
+        <v>2</v>
+      </c>
       <c r="H12" s="90">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I12" s="91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.000000000000001E-3</v>
       </c>
       <c r="J12" s="97" t="s">
         <v>81</v>
       </c>
       <c r="K12" s="93">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="95"/>
       <c r="C13" s="87" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E13" s="89" t="s">
         <v>81</v>
       </c>
       <c r="F13" s="96">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="89"/>
       <c r="H13" s="90">
@@ -3827,49 +3854,47 @@
     <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="95"/>
       <c r="C14" s="87" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E14" s="89" t="s">
         <v>81</v>
       </c>
       <c r="F14" s="96">
-        <v>10</v>
-      </c>
-      <c r="G14" s="89">
         <v>1</v>
       </c>
+      <c r="G14" s="89"/>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I14" s="91">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J14" s="97" t="s">
         <v>81</v>
       </c>
       <c r="K14" s="93">
         <f t="shared" si="2"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="95"/>
       <c r="C15" s="87" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E15" s="89" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="96">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="89">
         <v>1</v>
@@ -3880,23 +3905,23 @@
       </c>
       <c r="I15" s="91">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J15" s="97" t="s">
         <v>81</v>
       </c>
       <c r="K15" s="93">
         <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="86"/>
       <c r="C16" s="87" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D16" s="98" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E16" s="89" t="s">
         <v>81</v>
@@ -3927,7 +3952,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E17" s="89" t="s">
         <v>81</v>
@@ -3935,9 +3960,7 @@
       <c r="F17" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="89">
-        <v>3</v>
-      </c>
+      <c r="G17" s="89"/>
       <c r="H17" s="90" t="s">
         <v>81</v>
       </c>
@@ -3950,7 +3973,7 @@
       </c>
       <c r="K17" s="93">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3959,7 +3982,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E18" s="89" t="s">
         <v>81</v>
@@ -3988,7 +4011,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="88" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E19" s="89" t="s">
         <v>81</v>
@@ -3996,7 +4019,9 @@
       <c r="F19" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="89"/>
+      <c r="G19" s="89">
+        <v>1</v>
+      </c>
       <c r="H19" s="90" t="s">
         <v>81</v>
       </c>
@@ -4008,7 +4033,7 @@
       </c>
       <c r="K19" s="93">
         <f>G19*J19</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4017,7 +4042,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E20" s="89" t="s">
         <v>81</v>
@@ -4025,9 +4050,7 @@
       <c r="F20" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="89">
-        <v>1</v>
-      </c>
+      <c r="G20" s="89"/>
       <c r="H20" s="90" t="s">
         <v>81</v>
       </c>
@@ -4039,7 +4062,7 @@
       </c>
       <c r="K20" s="93">
         <f>G20*J20</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4048,7 +4071,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E21" s="89" t="s">
         <v>81</v>
@@ -4056,9 +4079,7 @@
       <c r="F21" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="89">
-        <v>1</v>
-      </c>
+      <c r="G21" s="89"/>
       <c r="H21" s="90" t="s">
         <v>81</v>
       </c>
@@ -4070,7 +4091,7 @@
       </c>
       <c r="K21" s="93">
         <f t="shared" si="3"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4079,7 +4100,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E22" s="89" t="s">
         <v>81</v>
@@ -4108,7 +4129,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="88" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E23" s="89" t="s">
         <v>81</v>
@@ -4116,9 +4137,7 @@
       <c r="F23" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="89">
-        <v>1</v>
-      </c>
+      <c r="G23" s="89"/>
       <c r="H23" s="90" t="s">
         <v>81</v>
       </c>
@@ -4130,7 +4149,7 @@
       </c>
       <c r="K23" s="93">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4139,16 +4158,16 @@
         <v>18</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E24" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="89" t="s">
-        <v>81</v>
+      <c r="F24" s="89">
+        <v>0.5</v>
       </c>
       <c r="G24" s="89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="90" t="s">
         <v>81</v>
@@ -4161,16 +4180,16 @@
       </c>
       <c r="K24" s="93">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="95"/>
       <c r="C25" s="87">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D25" s="88" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E25" s="89" t="s">
         <v>81</v>
@@ -4266,70 +4285,70 @@
       <c r="K31" s="105"/>
     </row>
     <row r="32" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
+      <c r="B32" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
       <c r="J32" s="106"/>
       <c r="K32" s="107">
         <f>SUM(K7:K31)</f>
-        <v>2.0956600000000001</v>
+        <v>1.7264999999999999</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
+      <c r="B33" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
       <c r="J33" s="108"/>
       <c r="K33" s="109">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="118" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
+      <c r="B34" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
       <c r="J34" s="108"/>
       <c r="K34" s="110">
         <f>((K32*K33)/100)+K32</f>
-        <v>2.3052260000000002</v>
+        <v>1.8991499999999999</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="120" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
+      <c r="B35" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
       <c r="J35" s="111"/>
       <c r="K35" s="112">
         <f>K34*250</f>
-        <v>576.30650000000003</v>
+        <v>474.78749999999997</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -4429,4 +4448,1023 @@
     <ignoredError sqref="C7:C16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49565477-D8D0-42A6-86B2-CF1996DB75F0}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:R41"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="76" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O7" sqref="O7"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="63" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="18" width="8.88671875" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="127"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="62"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="67">
+        <f>7564</f>
+        <v>7564</v>
+      </c>
+      <c r="M2" s="68">
+        <f>CSF!I27</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="62">
+        <v>1</v>
+      </c>
+      <c r="O2" s="62">
+        <v>7</v>
+      </c>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="72">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="59"/>
+      <c r="N3" s="62">
+        <v>3</v>
+      </c>
+      <c r="O3" s="62">
+        <v>8</v>
+      </c>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="62">
+        <v>6</v>
+      </c>
+      <c r="O4" s="62">
+        <v>12</v>
+      </c>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+    </row>
+    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="130" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
+    </row>
+    <row r="6" spans="1:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="129"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="133"/>
+    </row>
+    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="81">
+        <v>131</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="82">
+        <f>CSF!M30</f>
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="83">
+        <f>(E7*H7)/100</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J7" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="85">
+        <f>I7</f>
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="86"/>
+      <c r="C8" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="89">
+        <v>1</v>
+      </c>
+      <c r="H8" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="93">
+        <f>G8*J8</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="94"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="96">
+        <v>15</v>
+      </c>
+      <c r="G9" s="89">
+        <v>1</v>
+      </c>
+      <c r="H9" s="90">
+        <f t="shared" ref="H9:H15" si="0">$H$7</f>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="91">
+        <f t="shared" ref="I9:I15" si="1">(F9*G9*H9)/100</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J9" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="93">
+        <f t="shared" ref="K9:K15" si="2">I9</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O9" s="63"/>
+    </row>
+    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="95"/>
+      <c r="C10" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="96">
+        <v>8</v>
+      </c>
+      <c r="G10" s="89">
+        <v>1</v>
+      </c>
+      <c r="H10" s="90">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="91">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J10" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="93">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="95"/>
+      <c r="C11" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="96">
+        <v>6</v>
+      </c>
+      <c r="G11" s="89">
+        <v>1</v>
+      </c>
+      <c r="H11" s="90">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="91">
+        <f t="shared" si="1"/>
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="J11" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="93">
+        <f t="shared" si="2"/>
+        <v>6.000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="95"/>
+      <c r="C12" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="96">
+        <v>4</v>
+      </c>
+      <c r="G12" s="89">
+        <v>3</v>
+      </c>
+      <c r="H12" s="90">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="91">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002E-2</v>
+      </c>
+      <c r="J12" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="93">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="95"/>
+      <c r="C13" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="96">
+        <v>3</v>
+      </c>
+      <c r="G13" s="89">
+        <v>2</v>
+      </c>
+      <c r="H13" s="90">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="91">
+        <f t="shared" si="1"/>
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="J13" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="93">
+        <f t="shared" si="2"/>
+        <v>6.000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="95"/>
+      <c r="C14" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="96">
+        <v>1</v>
+      </c>
+      <c r="G14" s="89">
+        <v>3</v>
+      </c>
+      <c r="H14" s="90">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="91">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000005E-3</v>
+      </c>
+      <c r="J14" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="93">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="95"/>
+      <c r="C15" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="96"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="86"/>
+      <c r="C16" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="89">
+        <v>0</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="90">
+        <v>0.4</v>
+      </c>
+      <c r="K16" s="93">
+        <f t="shared" ref="K16:K25" si="3">G16*J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="95"/>
+      <c r="C17" s="87">
+        <v>11</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="90">
+        <f>CSF!G10</f>
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="95"/>
+      <c r="C18" s="87">
+        <v>12</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="93">
+        <f>G18*J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="95"/>
+      <c r="C19" s="87">
+        <v>13</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="89">
+        <v>1</v>
+      </c>
+      <c r="H19" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="90">
+        <v>0.65</v>
+      </c>
+      <c r="K19" s="93">
+        <f>G19*J19</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="95"/>
+      <c r="C20" s="87">
+        <v>14</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="93">
+        <f>G20*J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="87">
+        <v>15</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="90">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K21" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="95"/>
+      <c r="C22" s="87">
+        <v>16</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="89"/>
+      <c r="H22" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="90">
+        <v>0.15</v>
+      </c>
+      <c r="K22" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="95"/>
+      <c r="C23" s="87">
+        <v>17</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="95"/>
+      <c r="C24" s="87">
+        <v>18</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="89">
+        <v>1</v>
+      </c>
+      <c r="H24" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="93">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="95"/>
+      <c r="C25" s="87">
+        <v>22</v>
+      </c>
+      <c r="D25" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="K25" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="86"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="93"/>
+    </row>
+    <row r="27" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="86"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="93"/>
+    </row>
+    <row r="28" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="86"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="93"/>
+    </row>
+    <row r="29" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="86"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="93"/>
+    </row>
+    <row r="30" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="86"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="93"/>
+    </row>
+    <row r="31" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="105"/>
+    </row>
+    <row r="32" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="107">
+        <f>SUM(K7:K31)</f>
+        <v>1.681</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="110">
+        <f>((K32*K33)/100)+K32</f>
+        <v>1.8491</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="112">
+        <f>K34*250</f>
+        <v>462.27499999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+  </mergeCells>
+  <pageMargins left="0.15" right="0.15" top="0.75" bottom="0.25" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/Static Pressure Cal. SHAHEEM ANJUM.xlsx
+++ b/Static Pressure Cal. SHAHEEM ANJUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aamir Suhail\Desktop\SHAHEEM ANJUM\SHAHEEM ANJUM 1\ARCH SAUD RESIDENTIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612EA384-117F-4632-8C7C-67713DEDBEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AF29CB-0A23-45AD-BCD9-3B4716FA1212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="130">
   <si>
     <t>Project</t>
   </si>
@@ -507,15 +507,6 @@
     <t>Duct Fittings, 31" x 26"</t>
   </si>
   <si>
-    <t>Duct Fittings, 15" x 14"</t>
-  </si>
-  <si>
-    <t>Duct Fittings, 11" x 11"</t>
-  </si>
-  <si>
-    <t>Duct Fittings, 11" x 4"</t>
-  </si>
-  <si>
     <t>Duct Fittings, 6" x 4"</t>
   </si>
   <si>
@@ -538,6 +529,12 @@
   </si>
   <si>
     <t>Duct Fittings, 30" x 26"</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 12" x 12"</t>
+  </si>
+  <si>
+    <t>Duct Fittings, 12" x 4"</t>
   </si>
 </sst>
 </file>
@@ -3444,7 +3441,7 @@
       <selection activeCell="O7" sqref="O7"/>
       <selection pane="topRight" activeCell="O7" sqref="O7"/>
       <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3530,7 +3527,7 @@
       </c>
       <c r="C3" s="70"/>
       <c r="D3" s="70" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3" s="70"/>
@@ -3635,7 +3632,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="81">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F7" s="81" t="s">
         <v>81</v>
@@ -3649,14 +3646,14 @@
       </c>
       <c r="I7" s="83">
         <f>(E7*H7)/100</f>
-        <v>0.10600000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="J7" s="84" t="s">
         <v>81</v>
       </c>
       <c r="K7" s="85">
         <f>I7</f>
-        <v>0.10600000000000001</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3729,7 +3726,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E10" s="89" t="s">
         <v>81</v>
@@ -3760,7 +3757,7 @@
         <v>86</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E11" s="89" t="s">
         <v>81</v>
@@ -3793,7 +3790,7 @@
         <v>87</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E12" s="89" t="s">
         <v>81</v>
@@ -3826,7 +3823,7 @@
         <v>88</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E13" s="89" t="s">
         <v>81</v>
@@ -3865,21 +3862,23 @@
       <c r="F14" s="96">
         <v>1</v>
       </c>
-      <c r="G14" s="89"/>
+      <c r="G14" s="89">
+        <v>6</v>
+      </c>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I14" s="91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.000000000000001E-3</v>
       </c>
       <c r="J14" s="97" t="s">
         <v>81</v>
       </c>
       <c r="K14" s="93">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,7 +4166,7 @@
         <v>0.5</v>
       </c>
       <c r="G24" s="89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="90" t="s">
         <v>81</v>
@@ -4180,7 +4179,7 @@
       </c>
       <c r="K24" s="93">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4298,7 +4297,7 @@
       <c r="J32" s="106"/>
       <c r="K32" s="107">
         <f>SUM(K7:K31)</f>
-        <v>1.7264999999999999</v>
+        <v>1.6355</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4331,7 +4330,7 @@
       <c r="J34" s="108"/>
       <c r="K34" s="110">
         <f>((K32*K33)/100)+K32</f>
-        <v>1.8991499999999999</v>
+        <v>1.79905</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4348,7 +4347,7 @@
       <c r="J35" s="111"/>
       <c r="K35" s="112">
         <f>K34*250</f>
-        <v>474.78749999999997</v>
+        <v>449.76249999999999</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -4462,7 +4461,7 @@
       <selection activeCell="O7" sqref="O7"/>
       <selection pane="topRight" activeCell="O7" sqref="O7"/>
       <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4548,7 +4547,7 @@
       </c>
       <c r="C3" s="70"/>
       <c r="D3" s="70" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3" s="70"/>
@@ -4653,7 +4652,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="81">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F7" s="81" t="s">
         <v>81</v>
@@ -4667,14 +4666,14 @@
       </c>
       <c r="I7" s="83">
         <f>(E7*H7)/100</f>
-        <v>0.13100000000000001</v>
+        <v>0.12100000000000001</v>
       </c>
       <c r="J7" s="84" t="s">
         <v>81</v>
       </c>
       <c r="K7" s="85">
         <f>I7</f>
-        <v>0.13100000000000001</v>
+        <v>0.12100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4715,7 +4714,7 @@
         <v>84</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E9" s="89" t="s">
         <v>81</v>
@@ -4749,7 +4748,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E10" s="89" t="s">
         <v>81</v>
@@ -4782,7 +4781,7 @@
         <v>86</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E11" s="89" t="s">
         <v>81</v>
@@ -4815,7 +4814,7 @@
         <v>87</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E12" s="89" t="s">
         <v>81</v>
@@ -4848,7 +4847,7 @@
         <v>88</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E13" s="89" t="s">
         <v>81</v>
@@ -4890,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="89">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
@@ -4898,14 +4897,14 @@
       </c>
       <c r="I14" s="91">
         <f t="shared" si="1"/>
-        <v>3.0000000000000005E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J14" s="97" t="s">
         <v>81</v>
       </c>
       <c r="K14" s="93">
         <f t="shared" si="2"/>
-        <v>3.0000000000000005E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5320,7 +5319,7 @@
       <c r="J32" s="114"/>
       <c r="K32" s="107">
         <f>SUM(K7:K31)</f>
-        <v>1.681</v>
+        <v>1.6760000000000002</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5353,7 +5352,7 @@
       <c r="J34" s="115"/>
       <c r="K34" s="110">
         <f>((K32*K33)/100)+K32</f>
-        <v>1.8491</v>
+        <v>1.8436000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5370,7 +5369,7 @@
       <c r="J35" s="116"/>
       <c r="K35" s="112">
         <f>K34*250</f>
-        <v>462.27499999999998</v>
+        <v>460.90000000000003</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -5447,11 +5446,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -5462,6 +5456,11 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.15" top="0.75" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="2" orientation="portrait" r:id="rId1"/>
